--- a/assets/Timesheet.xlsx
+++ b/assets/Timesheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thibautdemaerteleire/Documents/projects/minifootball_app/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiba\artevelde\@work\@work-5\minifootball_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F3916D-C1DF-3443-8E33-23B73F9611B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78AFEAA-FCBC-4002-AA50-616AFB0BBD7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{1A8032F3-C301-DF41-87EA-49BF61E2E3E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A8032F3-C301-DF41-87EA-49BF61E2E3E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Timesheet</t>
   </si>
@@ -55,6 +55,63 @@
   </si>
   <si>
     <t>Setup dev</t>
+  </si>
+  <si>
+    <t>Research laravel tenancy</t>
+  </si>
+  <si>
+    <t>Github actions</t>
+  </si>
+  <si>
+    <t>Implementing Scully</t>
+  </si>
+  <si>
+    <t>Implementing Storybook</t>
+  </si>
+  <si>
+    <t>Word eindwerkdossier</t>
+  </si>
+  <si>
+    <t>10/04/2021 - 14/04/2021</t>
+  </si>
+  <si>
+    <t>Eindwerkdossier analyse</t>
+  </si>
+  <si>
+    <t>10/05/2021 -  14/05/2021</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Moodboard</t>
+  </si>
+  <si>
+    <t>Sitemap</t>
+  </si>
+  <si>
+    <t>Style guide</t>
+  </si>
+  <si>
+    <t>06/04/2021 - 08/08/2021</t>
+  </si>
+  <si>
+    <t>Style tiles</t>
+  </si>
+  <si>
+    <t>Visual designs</t>
+  </si>
+  <si>
+    <t>Angular routing</t>
+  </si>
+  <si>
+    <t>Sidenav component app storybook</t>
+  </si>
+  <si>
+    <t>Research Auth0 &amp; laravel socialite</t>
+  </si>
+  <si>
+    <t>14/05/2021 - 16/05/2021</t>
   </si>
 </sst>
 </file>
@@ -141,22 +198,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -172,7 +237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,28 +533,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA03AB6A-4FAD-814A-B0E3-B0333E592037}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="34.296875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -500,62 +565,247 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <f>DATE(2021,4,4)</f>
+        <v>44290</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="5">
+        <f>DATE(2021,4,4)</f>
+        <v>44290</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <f>DATE(2021,4,5)</f>
+        <v>44291</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" ref="B7:B8" si="0">DATE(2021,4,5)</f>
+        <v>44291</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>44291</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44303</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44290</v>
+      </c>
+      <c r="C12" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44291</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
+        <v>44297</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7">
+        <v>44292</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7">
+        <v>44318</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
         <f>DATE(2021,4,30)</f>
         <v>44316</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B19" s="5">
         <f>DATE(2021,5,1)</f>
         <v>44317</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C19" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B20" s="5">
         <f>DATE(2021,5,2)</f>
         <v>44318</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C20" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B21" s="5">
         <f>DATE(2021,5,3)</f>
         <v>44319</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C21" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
+        <v>44331</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>44332</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Timesheet.xlsx
+++ b/assets/Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiba\artevelde\@work\@work-5\minifootball_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78AFEAA-FCBC-4002-AA50-616AFB0BBD7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF73A566-E0A7-4A44-9B15-601D3D9B6C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A8032F3-C301-DF41-87EA-49BF61E2E3E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A8032F3-C301-DF41-87EA-49BF61E2E3E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Timesheet</t>
   </si>
@@ -112,6 +112,78 @@
   </si>
   <si>
     <t>14/05/2021 - 16/05/2021</t>
+  </si>
+  <si>
+    <t>Models angular</t>
+  </si>
+  <si>
+    <t>Modules Angular structure</t>
+  </si>
+  <si>
+    <t>Sidenav and app header component</t>
+  </si>
+  <si>
+    <t>Dashboard page</t>
+  </si>
+  <si>
+    <t>Bootstrap scss structure</t>
+  </si>
+  <si>
+    <t>Skeleton component</t>
+  </si>
+  <si>
+    <t>Routing templates</t>
+  </si>
+  <si>
+    <t>Sidenav routing</t>
+  </si>
+  <si>
+    <t>Laravel migrations</t>
+  </si>
+  <si>
+    <t>Securing .env files</t>
+  </si>
+  <si>
+    <t>Laravel Models</t>
+  </si>
+  <si>
+    <t>Laravel Factories</t>
+  </si>
+  <si>
+    <t>Laravel Auth api's</t>
+  </si>
+  <si>
+    <t>Login page + api</t>
+  </si>
+  <si>
+    <t>CORS probleem api</t>
+  </si>
+  <si>
+    <t>23/05/2021-24/05/2021</t>
+  </si>
+  <si>
+    <t>Fix pipelines</t>
+  </si>
+  <si>
+    <t>25/05/2021-26/05/2021</t>
+  </si>
+  <si>
+    <t>Custom-input component</t>
+  </si>
+  <si>
+    <t>Angular Loader</t>
+  </si>
+  <si>
+    <t>Added all components to storybook</t>
+  </si>
+  <si>
+    <t>Fix bugs flagpack package</t>
+  </si>
+  <si>
+    <t>Authentication pages + validation SS &amp; CS</t>
+  </si>
+  <si>
+    <t>Sniffing api's RBFA</t>
   </si>
 </sst>
 </file>
@@ -207,9 +279,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -218,6 +287,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,25 +605,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA03AB6A-4FAD-814A-B0E3-B0333E592037}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.296875" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -569,7 +641,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>DATE(2021,4,4)</f>
         <v>44290</v>
       </c>
@@ -581,7 +653,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>DATE(2021,4,4)</f>
         <v>44290</v>
       </c>
@@ -593,7 +665,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f>DATE(2021,4,5)</f>
         <v>44291</v>
       </c>
@@ -605,7 +677,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f t="shared" ref="B7:B8" si="0">DATE(2021,4,5)</f>
         <v>44291</v>
       </c>
@@ -617,7 +689,7 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>44291</v>
       </c>
@@ -626,13 +698,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3">
@@ -643,7 +715,7 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>44303</v>
       </c>
       <c r="C11" s="3">
@@ -654,7 +726,7 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>44290</v>
       </c>
       <c r="C12" s="3">
@@ -665,7 +737,7 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>44291</v>
       </c>
       <c r="C13" s="3">
@@ -676,7 +748,7 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="3">
@@ -687,7 +759,7 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>44297</v>
       </c>
       <c r="C15" s="3">
@@ -698,7 +770,7 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>44292</v>
       </c>
       <c r="C16" s="3">
@@ -709,7 +781,7 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>44318</v>
       </c>
       <c r="C17" s="3">
@@ -720,7 +792,7 @@
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <f>DATE(2021,4,30)</f>
         <v>44316</v>
       </c>
@@ -732,7 +804,7 @@
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <f>DATE(2021,5,1)</f>
         <v>44317</v>
       </c>
@@ -744,7 +816,7 @@
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <f>DATE(2021,5,2)</f>
         <v>44318</v>
       </c>
@@ -756,7 +828,7 @@
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <f>DATE(2021,5,3)</f>
         <v>44319</v>
       </c>
@@ -768,7 +840,7 @@
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="3">
@@ -779,7 +851,7 @@
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="3">
@@ -790,7 +862,7 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>44331</v>
       </c>
       <c r="C24" s="3">
@@ -801,10 +873,285 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>44332</v>
       </c>
       <c r="C25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44333</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>44334</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44335</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="6">
+        <v>44336</v>
+      </c>
+      <c r="C29" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44336</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44337</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6">
+        <v>44337</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6">
+        <v>44338</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="6">
+        <v>44338</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6">
+        <v>44338</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="6">
+        <v>44339</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6">
+        <v>44339</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="6">
+        <v>44339</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="6">
+        <v>44342</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="6">
+        <v>44343</v>
+      </c>
+      <c r="C44" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44344</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="6">
+        <v>44345</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6">
+        <v>44345</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6">
+        <v>44345</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6">
+        <v>44346</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6">
+        <v>44346</v>
+      </c>
+      <c r="C50" s="3">
         <v>3</v>
       </c>
     </row>

--- a/assets/Timesheet.xlsx
+++ b/assets/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiba\artevelde\@work\@work-5\minifootball_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF73A566-E0A7-4A44-9B15-601D3D9B6C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E50633-B096-4369-BC32-8C259094F062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A8032F3-C301-DF41-87EA-49BF61E2E3E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A8032F3-C301-DF41-87EA-49BF61E2E3E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Timesheet</t>
   </si>
@@ -184,6 +184,45 @@
   </si>
   <si>
     <t>Sniffing api's RBFA</t>
+  </si>
+  <si>
+    <t>Fixed dashboard page</t>
+  </si>
+  <si>
+    <t>changed CORS</t>
+  </si>
+  <si>
+    <t>Created components</t>
+  </si>
+  <si>
+    <t>User API's</t>
+  </si>
+  <si>
+    <t>Created auth guard</t>
+  </si>
+  <si>
+    <t>Fix dashboard add player data and store image public</t>
+  </si>
+  <si>
+    <t>File upload API's</t>
+  </si>
+  <si>
+    <t>Created components and upload image frontend</t>
+  </si>
+  <si>
+    <t>Fix add player data validation dashboard page</t>
+  </si>
+  <si>
+    <t>Create widgets and pages</t>
+  </si>
+  <si>
+    <t>Create api's</t>
+  </si>
+  <si>
+    <t>Teams overview aand search page</t>
+  </si>
+  <si>
+    <t>3/06/2021 - 6/06/2021</t>
   </si>
 </sst>
 </file>
@@ -605,20 +644,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA03AB6A-4FAD-814A-B0E3-B0333E592037}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.296875" customWidth="1"/>
+    <col min="1" max="1" width="58.8984375" customWidth="1"/>
     <col min="2" max="2" width="24.69921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -626,7 +665,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -637,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -648,8 +687,12 @@
       <c r="C3" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>SUM(C3:C847)</f>
+        <v>284.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -661,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -673,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -685,7 +728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -697,10 +740,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -711,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -722,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -733,7 +776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -744,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -755,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -766,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1153,6 +1196,138 @@
       </c>
       <c r="C50" s="3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6">
+        <v>44347</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6">
+        <v>44347</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6">
+        <v>44347</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6">
+        <v>44348</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6">
+        <v>44348</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="6">
+        <v>44348</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6">
+        <v>44349</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6">
+        <v>44349</v>
+      </c>
+      <c r="C58" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6">
+        <v>44349</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6">
+        <v>44353</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Timesheet.xlsx
+++ b/assets/Timesheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiba\artevelde\@work\@work-5\minifootball_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E50633-B096-4369-BC32-8C259094F062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6221F571-AB12-4714-950A-9944CD45643F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A8032F3-C301-DF41-87EA-49BF61E2E3E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Timesheet</t>
   </si>
@@ -223,13 +224,55 @@
   </si>
   <si>
     <t>3/06/2021 - 6/06/2021</t>
+  </si>
+  <si>
+    <t>Productiedossier</t>
+  </si>
+  <si>
+    <t>12/06/2021 - 13/06/2021</t>
+  </si>
+  <si>
+    <t>Refactoring some code</t>
+  </si>
+  <si>
+    <t>Deployment fix bugs</t>
+  </si>
+  <si>
+    <t>Fix create team swipers widgets</t>
+  </si>
+  <si>
+    <t>Birthday page and api</t>
+  </si>
+  <si>
+    <t>7/06/2021 - 8/06/2021</t>
+  </si>
+  <si>
+    <t>Updates page and api</t>
+  </si>
+  <si>
+    <t>Added pagination to widgets, pages and api's</t>
+  </si>
+  <si>
+    <t>Forgot password added to login page</t>
+  </si>
+  <si>
+    <t>Forgot password mailing</t>
+  </si>
+  <si>
+    <t>9/06/2021 - 10/06/2021</t>
+  </si>
+  <si>
+    <t>Making components responsive</t>
+  </si>
+  <si>
+    <t>Added loaders to pages and team page + child routes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,6 +290,12 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -644,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA03AB6A-4FAD-814A-B0E3-B0333E592037}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -689,7 +738,7 @@
       </c>
       <c r="E3">
         <f>SUM(C3:C847)</f>
-        <v>284.5</v>
+        <v>338.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -721,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" ref="B7:B8" si="0">DATE(2021,4,5)</f>
+        <f>DATE(2021,4,5)</f>
         <v>44291</v>
       </c>
       <c r="C7" s="3">
@@ -733,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" si="0"/>
+        <f>DATE(2021,4,5)</f>
         <v>44291</v>
       </c>
       <c r="C8" s="3">
@@ -1328,12 +1377,134 @@
       </c>
       <c r="C62" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="6">
+        <v>44354</v>
+      </c>
+      <c r="C63" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="6">
+        <v>44355</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="6">
+        <v>44356</v>
+      </c>
+      <c r="C67" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="6">
+        <v>44356</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="6">
+        <v>44357</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="6">
+        <v>44358</v>
+      </c>
+      <c r="C71" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="6">
+        <v>44358</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="3">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/Timesheet.xlsx
+++ b/assets/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiba\artevelde\@work\@work-5\minifootball_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6221F571-AB12-4714-950A-9944CD45643F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDB8865-B3A4-4C20-839F-C616D983B5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A8032F3-C301-DF41-87EA-49BF61E2E3E8}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>Timesheet</t>
   </si>
@@ -266,13 +265,28 @@
   </si>
   <si>
     <t>Added loaders to pages and team page + child routes</t>
+  </si>
+  <si>
+    <t>Aanpassing user acceptance testing</t>
+  </si>
+  <si>
+    <t>Practice matches teams</t>
+  </si>
+  <si>
+    <t>14/06/2021-16/06/2021</t>
+  </si>
+  <si>
+    <t>Teams detail pages and api's</t>
+  </si>
+  <si>
+    <t>Total hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,6 +314,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -354,11 +376,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,6 +445,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -693,20 +771,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA03AB6A-4FAD-814A-B0E3-B0333E592037}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.8984375" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
     <col min="2" max="2" width="24.69921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -714,7 +792,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -725,7 +803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -736,12 +814,8 @@
       <c r="C3" s="3">
         <v>1.5</v>
       </c>
-      <c r="E3">
-        <f>SUM(C3:C847)</f>
-        <v>338.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -753,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -765,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -777,7 +851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -789,10 +863,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -803,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -814,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -825,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -836,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -847,7 +921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -858,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1498,6 +1572,64 @@
       </c>
       <c r="C73" s="3">
         <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="6">
+        <v>44361</v>
+      </c>
+      <c r="C74" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="6">
+        <v>44362</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="15">
+        <f>SUM(C3:C847)</f>
+        <v>372.5</v>
       </c>
     </row>
   </sheetData>
